--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="147">
   <si>
     <t xml:space="preserve">Alat-Alat </t>
   </si>
@@ -456,14 +456,31 @@
   </si>
   <si>
     <t>Trident Aquacare Tropical Gold Premium</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -491,8 +508,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,34 +791,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -811,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,21 +875,21 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -910,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -921,18 +944,18 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -987,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1009,7 +1032,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1064,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1086,7 +1109,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1108,7 +1131,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1119,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1141,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1163,7 +1186,7 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1218,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1240,7 +1263,7 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1295,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1317,7 +1340,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1361,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1372,7 +1395,7 @@
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1449,7 +1472,7 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1504,7 +1527,7 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1526,7 +1549,7 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1570,7 +1593,7 @@
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1614,7 +1637,7 @@
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1636,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1658,7 +1681,7 @@
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1680,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1702,7 +1725,7 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1713,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1746,7 +1769,7 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1757,7 +1780,7 @@
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1779,7 +1802,7 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1790,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1812,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1845,7 +1868,7 @@
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1900,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -1955,7 +1978,7 @@
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -1988,7 +2011,7 @@
         <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2043,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2054,7 +2077,7 @@
         <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2065,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2087,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2109,7 +2132,7 @@
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2120,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2131,7 +2154,7 @@
         <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -2142,7 +2165,7 @@
         <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2153,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -2164,7 +2187,7 @@
         <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2175,7 +2198,7 @@
         <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2219,7 +2242,7 @@
         <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2263,7 +2286,7 @@
         <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2274,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2301,13 +2324,13 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2323,13 +2346,13 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B141" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C141" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -2351,7 +2374,7 @@
         <v>72</v>
       </c>
       <c r="C143" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2362,7 +2385,7 @@
         <v>72</v>
       </c>
       <c r="C144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2373,7 +2396,7 @@
         <v>72</v>
       </c>
       <c r="C145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2384,7 +2407,7 @@
         <v>72</v>
       </c>
       <c r="C146" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2395,7 +2418,7 @@
         <v>72</v>
       </c>
       <c r="C147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -2406,7 +2429,7 @@
         <v>72</v>
       </c>
       <c r="C148" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2417,7 +2440,7 @@
         <v>72</v>
       </c>
       <c r="C149" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2461,7 +2484,7 @@
         <v>72</v>
       </c>
       <c r="C153" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2472,7 +2495,7 @@
         <v>72</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2483,7 +2506,7 @@
         <v>72</v>
       </c>
       <c r="C155" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2494,7 +2517,7 @@
         <v>72</v>
       </c>
       <c r="C156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2505,7 +2528,7 @@
         <v>72</v>
       </c>
       <c r="C157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -2538,7 +2561,7 @@
         <v>72</v>
       </c>
       <c r="C160" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -2549,7 +2572,7 @@
         <v>72</v>
       </c>
       <c r="C161" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -2560,7 +2583,7 @@
         <v>72</v>
       </c>
       <c r="C162" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -2604,7 +2627,7 @@
         <v>72</v>
       </c>
       <c r="C166" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2615,7 +2638,7 @@
         <v>72</v>
       </c>
       <c r="C167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2626,7 +2649,7 @@
         <v>72</v>
       </c>
       <c r="C168" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2637,7 +2660,7 @@
         <v>72</v>
       </c>
       <c r="C169" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2648,7 +2671,7 @@
         <v>72</v>
       </c>
       <c r="C170" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2670,7 +2693,7 @@
         <v>72</v>
       </c>
       <c r="C172" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2692,7 +2715,7 @@
         <v>72</v>
       </c>
       <c r="C174" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2725,7 +2748,7 @@
         <v>72</v>
       </c>
       <c r="C177" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -2736,7 +2759,7 @@
         <v>72</v>
       </c>
       <c r="C178" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -2747,7 +2770,7 @@
         <v>72</v>
       </c>
       <c r="C179" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -2758,7 +2781,7 @@
         <v>72</v>
       </c>
       <c r="C180" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -2802,7 +2825,7 @@
         <v>72</v>
       </c>
       <c r="C184" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -2813,7 +2836,7 @@
         <v>72</v>
       </c>
       <c r="C185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -2824,7 +2847,7 @@
         <v>72</v>
       </c>
       <c r="C186" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -2835,7 +2858,7 @@
         <v>72</v>
       </c>
       <c r="C187" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -2846,7 +2869,7 @@
         <v>72</v>
       </c>
       <c r="C188" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -2857,7 +2880,7 @@
         <v>72</v>
       </c>
       <c r="C189" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -2868,7 +2891,7 @@
         <v>72</v>
       </c>
       <c r="C190" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -2879,18 +2902,18 @@
         <v>72</v>
       </c>
       <c r="C191" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B192" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C192" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -2923,7 +2946,7 @@
         <v>105</v>
       </c>
       <c r="C195" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -2956,7 +2979,7 @@
         <v>105</v>
       </c>
       <c r="C198" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -2967,7 +2990,7 @@
         <v>105</v>
       </c>
       <c r="C199" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -2978,7 +3001,7 @@
         <v>105</v>
       </c>
       <c r="C200" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -2989,7 +3012,7 @@
         <v>105</v>
       </c>
       <c r="C201" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -3000,7 +3023,7 @@
         <v>105</v>
       </c>
       <c r="C202" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -3011,7 +3034,7 @@
         <v>105</v>
       </c>
       <c r="C203" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -3055,7 +3078,7 @@
         <v>105</v>
       </c>
       <c r="C207" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -3099,7 +3122,7 @@
         <v>105</v>
       </c>
       <c r="C211" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -3110,7 +3133,7 @@
         <v>105</v>
       </c>
       <c r="C212" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -3143,7 +3166,7 @@
         <v>105</v>
       </c>
       <c r="C215" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -3154,7 +3177,7 @@
         <v>105</v>
       </c>
       <c r="C216" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -3165,7 +3188,7 @@
         <v>105</v>
       </c>
       <c r="C217" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -3198,7 +3221,7 @@
         <v>105</v>
       </c>
       <c r="C220" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -3231,7 +3254,7 @@
         <v>105</v>
       </c>
       <c r="C223" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -3264,7 +3287,7 @@
         <v>105</v>
       </c>
       <c r="C226" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -3297,7 +3320,7 @@
         <v>105</v>
       </c>
       <c r="C229" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -3330,7 +3353,7 @@
         <v>105</v>
       </c>
       <c r="C232" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -3363,7 +3386,7 @@
         <v>105</v>
       </c>
       <c r="C235" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -3396,7 +3419,7 @@
         <v>105</v>
       </c>
       <c r="C238" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -3407,7 +3430,7 @@
         <v>105</v>
       </c>
       <c r="C239" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3418,7 +3441,7 @@
         <v>105</v>
       </c>
       <c r="C240" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -3429,7 +3452,7 @@
         <v>105</v>
       </c>
       <c r="C241" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -3456,13 +3479,13 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B244" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C244" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -3473,7 +3496,7 @@
         <v>129</v>
       </c>
       <c r="C245" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -3484,7 +3507,7 @@
         <v>129</v>
       </c>
       <c r="C246" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -3495,7 +3518,7 @@
         <v>129</v>
       </c>
       <c r="C247" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -3517,7 +3540,7 @@
         <v>129</v>
       </c>
       <c r="C249" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -3528,7 +3551,7 @@
         <v>129</v>
       </c>
       <c r="C250" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -3539,7 +3562,7 @@
         <v>129</v>
       </c>
       <c r="C251" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -3550,7 +3573,7 @@
         <v>129</v>
       </c>
       <c r="C252" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -3561,7 +3584,7 @@
         <v>129</v>
       </c>
       <c r="C253" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -3572,7 +3595,7 @@
         <v>129</v>
       </c>
       <c r="C254" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -3583,7 +3606,7 @@
         <v>129</v>
       </c>
       <c r="C255" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -3605,7 +3628,7 @@
         <v>129</v>
       </c>
       <c r="C257" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -3616,7 +3639,7 @@
         <v>129</v>
       </c>
       <c r="C258" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -3627,10 +3650,22 @@
         <v>129</v>
       </c>
       <c r="C259" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>128</v>
+      </c>
+      <c r="B260" t="s">
+        <v>129</v>
+      </c>
+      <c r="C260" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>